--- a/mmpose_docs/datasets/2D Face Keypoint Datasets.xlsx
+++ b/mmpose_docs/datasets/2D Face Keypoint Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mmpose\mmpose_docs\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623765CE-6BF5-48D1-8508-2B7842EB7C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D444F5DE-F5EC-4B43-A9F2-E5FDA747216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>https://github.com/JDAI-CV/lapa-dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由25000幅来源于Flickr网站的图像组成，包含大小和姿态等变化，综合难度较高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个综 合 图 像 库，由LFPW和AFW等 多个图像库综合而成，整体难度较高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,8 +165,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -163,6 +178,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -445,123 +469,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="2.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.86328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
         <v>68</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="2">
         <v>98</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="2">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="2">
         <v>68</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="2">
         <v>106</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{18CBAA95-B8D2-441D-8CBA-57F4AEBA142F}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{3A18D8E0-4699-4648-BF34-85F4EB98093F}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{5FD3BB8A-C97F-4ABF-AFD3-4E473B730436}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{B8CF0E52-17A0-45C4-AB09-FA663AF23E11}"/>
-    <hyperlink ref="D6" r:id="rId5" location="download" xr:uid="{C74630D5-6F99-425C-9DF4-7A44030FF919}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{1D4DDB45-3DDE-4DA8-ACC3-780AA17A2D75}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{18CBAA95-B8D2-441D-8CBA-57F4AEBA142F}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{3A18D8E0-4699-4648-BF34-85F4EB98093F}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{5FD3BB8A-C97F-4ABF-AFD3-4E473B730436}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B8CF0E52-17A0-45C4-AB09-FA663AF23E11}"/>
+    <hyperlink ref="E6" r:id="rId5" location="download" xr:uid="{C74630D5-6F99-425C-9DF4-7A44030FF919}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{1D4DDB45-3DDE-4DA8-ACC3-780AA17A2D75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mmpose_docs/datasets/2D Face Keypoint Datasets.xlsx
+++ b/mmpose_docs/datasets/2D Face Keypoint Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mmpose\mmpose_docs\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D444F5DE-F5EC-4B43-A9F2-E5FDA747216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C57B679-7475-4C7F-8A65-06319509FFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,6 +584,9 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="2">
         <v>106</v>
       </c>
